--- a/CARRY.results.CHETR.xlsx
+++ b/CARRY.results.CHETR.xlsx
@@ -646,11 +646,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160555520"/>
-        <c:axId val="132992384"/>
+        <c:axId val="167056384"/>
+        <c:axId val="164812416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160555520"/>
+        <c:axId val="167056384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132992384"/>
+        <c:crossAx val="164812416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -667,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132992384"/>
+        <c:axId val="164812416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -679,7 +679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160555520"/>
+        <c:crossAx val="167056384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1022,15 +1022,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
